--- a/biology/Zoologie/Homopode_à_éperon/Homopode_à_éperon.xlsx
+++ b/biology/Zoologie/Homopode_à_éperon/Homopode_à_éperon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homopode_%C3%A0_%C3%A9peron</t>
+          <t>Homopode_à_éperon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homopus femoralis
-Homopus femoralis, l'Homopode à éperon, est une espèce de tortues de la famille des Testudinidae[1].
+Homopus femoralis, l'Homopode à éperon, est une espèce de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Homopode_%C3%A0_%C3%A9peron</t>
+          <t>Homopode_à_éperon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1]. Elle se rencontre dans le désert du Karoo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle se rencontre dans le désert du Karoo.
 Sa présence au Lesotho est incertaine.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Homopode_%C3%A0_%C3%A9peron</t>
+          <t>Homopode_à_éperon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1888 : Description of a new land-tortoise from South Africa, from a specimen living in the Society’s Gardens. Proceedings of the Zoological Society of London, vol. 1888, p. 251 (texte intégral).</t>
         </is>
